--- a/File5_Pivot Table_ashish.xlsx
+++ b/File5_Pivot Table_ashish.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="Staff" sheetId="11" r:id="rId1"/>
-    <sheet name="Staff2" sheetId="12" r:id="rId2"/>
-    <sheet name="Employees report" sheetId="13" r:id="rId3"/>
-    <sheet name="Tasks description" sheetId="9" r:id="rId4"/>
+    <sheet name="Employees report (2)" sheetId="14" r:id="rId1"/>
+    <sheet name="Staff" sheetId="11" r:id="rId2"/>
+    <sheet name="Staff2" sheetId="12" r:id="rId3"/>
+    <sheet name="Employees report" sheetId="13" r:id="rId4"/>
+    <sheet name="Tasks description" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Staff2!$A$4:$I$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Staff2!$A$4:$I$58</definedName>
     <definedName name="Slicer_Department">#N/A</definedName>
+    <definedName name="Slicer_Department1">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="10" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="166">
   <si>
     <t>Robert</t>
   </si>
@@ -1865,6 +1868,9 @@
   </si>
   <si>
     <t>Max of Vacation leave</t>
+  </si>
+  <si>
+    <t>Sum of Salary</t>
   </si>
 </sst>
 </file>
@@ -2438,7 +2444,383 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[File5_Pivot Table_ashish.xlsx]Employees report (2)!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Employees report (2)'!$D$8:$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Copier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Employees report (2)'!$C$10:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Accountant</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Accountant's Assistant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Senior Administration Assistant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Employees report (2)'!$D$10:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>57640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Employees report (2)'!$E$8:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Employees report (2)'!$C$10:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Accountant</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Accountant's Assistant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Senior Administration Assistant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Employees report (2)'!$E$10:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>27598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Employees report (2)'!$F$8:$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Printer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Employees report (2)'!$C$10:$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Accountant</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Accountant's Assistant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Senior Administration Assistant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Employees report (2)'!$F$10:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>63079</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="160960000"/>
+        <c:axId val="49735936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="160960000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49735936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49735936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="160960000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Department 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Department 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4238625" y="2914650"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers can be used in at least Excel 2010.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2453,8 +2835,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Department"/>
@@ -2471,7 +2853,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2516,7 +2898,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Stan_c09" refreshedDate="44914.747776041666" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="54">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Stan_c09" refreshedDate="44928.65038240741" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="54">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:H59" sheet="Staff"/>
   </cacheSource>
@@ -3126,7 +3508,136 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="C8:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Salary" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C8:K25" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -3292,7 +3803,33 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Department1" sourceName="Department">
+  <pivotTables>
+    <pivotTable tabId="14" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="6">
+        <i x="0" s="1"/>
+        <i x="3"/>
+        <i x="4"/>
+        <i x="1"/>
+        <i x="2"/>
+        <i x="5"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Department 1" cache="Slicer_Department1" caption="Department" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <slicer name="Department" cache="Slicer_Department" caption="Department" rowHeight="241300"/>
 </slicers>
@@ -3585,9 +4122,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="C6:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>57640</v>
+      </c>
+      <c r="F10">
+        <v>63079</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>49486</v>
+      </c>
+      <c r="E11">
+        <v>27598</v>
+      </c>
+      <c r="F11">
+        <v>55196</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>28044</v>
+      </c>
+      <c r="E12">
+        <v>29045</v>
+      </c>
+      <c r="F12">
+        <v>28044</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -5040,8 +5687,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A4:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6674,8 +7322,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="C6:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7157,11 +7806,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
